--- a/Iteration 2/Resource Requirements.xlsx
+++ b/Iteration 2/Resource Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rockn\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB4E13F-B877-48F4-BD88-B79DA3E48B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA30784D-16C2-4DAC-9840-7BDE9C1AC652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{63B28E57-E292-432B-8B56-9CDD212CC01E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Deliverable</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>4 4 month subscriptions to Microsoft 365 = 4 months x 4 users x $23.23 per user per month</t>
+  </si>
+  <si>
+    <t>1 hour x 2 members</t>
+  </si>
+  <si>
+    <t>1 hour x $25 per member = 1 x $50</t>
+  </si>
+  <si>
+    <t>1 hour x 1 member</t>
+  </si>
+  <si>
+    <t>1 hour x $25 per member = 1 x $25</t>
+  </si>
+  <si>
+    <t>2 hours x 1 member + 1 hour x 1 member</t>
+  </si>
+  <si>
+    <t>2 hours x $25 per member = 2 x $25 + 1 hour x $25 per member = $75</t>
+  </si>
+  <si>
+    <t>1 hour x 4 members</t>
+  </si>
+  <si>
+    <t>1 hour x $25 per member = 1 x $100</t>
   </si>
 </sst>
 </file>
@@ -245,10 +269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F38E53D-A0B4-46B1-983D-4A9A3E798832}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,7 +799,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2.1</v>
       </c>
@@ -792,11 +812,17 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -809,11 +835,17 @@
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -826,9 +858,15 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -845,7 +883,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2.5</v>
       </c>
@@ -858,9 +896,15 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -895,7 +939,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="7">
         <f>SUM(G3:G15)</f>
-        <v>5371.68</v>
+        <v>5621.68</v>
       </c>
     </row>
   </sheetData>
@@ -913,6 +957,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2af50fb3-ac05-4619-85e1-17e26ad7a5e6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006111BADE4FDB794D841E67DC1709A6C2" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3d0eadca11fffb05456aef0d70395f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2af50fb3-ac05-4619-85e1-17e26ad7a5e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d3e62030e9800d7e2f19269ebdc2186e" ns3:_="">
     <xsd:import namespace="2af50fb3-ac05-4619-85e1-17e26ad7a5e6"/>
@@ -1098,24 +1159,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6359C4D5-3E51-49C3-928B-7677D1CC8038}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2af50fb3-ac05-4619-85e1-17e26ad7a5e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2af50fb3-ac05-4619-85e1-17e26ad7a5e6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3786D5C9-9657-4100-8F93-5C49021812EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB6C1B3-22B8-4A15-853F-1D1BEF599715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1131,28 +1199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3786D5C9-9657-4100-8F93-5C49021812EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6359C4D5-3E51-49C3-928B-7677D1CC8038}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2af50fb3-ac05-4619-85e1-17e26ad7a5e6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>